--- a/data/renewables/Marine/wave_power_future_deployment_scenarios.xlsx
+++ b/data/renewables/Marine/wave_power_future_deployment_scenarios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1100626\OneDrive - University of Edinburgh\Year 2 - Energy System Modelling\Q3 - Analysis\Deployment scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/alyden_ed_ac_uk/Documents/Python/PyPSA-GB v0.0.1/data/renewables/Marine/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_592B2060B1F1D3FE9C4030C12788C1B00122FE31" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A216D721-8B0A-47C4-A081-E8B704FE5DFB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wave_power_CT" sheetId="24" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="46">
   <si>
     <t>Bernera</t>
   </si>
@@ -166,12 +167,15 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>S.W.Penisula</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -488,22 +492,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H19"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -538,7 +542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -555,7 +559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -572,7 +576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -589,7 +593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -606,7 +610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -623,7 +627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -640,7 +644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -675,7 +679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -692,7 +696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -709,7 +713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -741,10 +745,10 @@
         <v>-5.75</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -761,7 +765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -775,10 +779,10 @@
         <v>-6.5</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -795,7 +799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -809,10 +813,10 @@
         <v>-5.5</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -829,7 +833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -846,7 +850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -863,7 +867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -892,22 +896,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H19"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -942,7 +946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -959,7 +963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -976,7 +980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -993,7 +997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1027,7 +1031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1044,7 +1048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1096,7 +1100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1113,7 +1117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1145,10 +1149,10 @@
         <v>-5.75</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1165,7 +1169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1179,10 +1183,10 @@
         <v>-6.5</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1199,7 +1203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1213,10 +1217,10 @@
         <v>-5.5</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1233,7 +1237,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1250,7 +1254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1296,22 +1300,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H19"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1397,7 +1401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1431,7 +1435,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1500,7 +1504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1517,7 +1521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1549,10 +1553,10 @@
         <v>-5.75</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1569,7 +1573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1583,10 +1587,10 @@
         <v>-6.5</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1603,7 +1607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1617,10 +1621,10 @@
         <v>-5.5</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1654,7 +1658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1671,7 +1675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1700,22 +1704,405 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1">
+        <v>2025</v>
+      </c>
+      <c r="D1">
+        <v>2030</v>
+      </c>
+      <c r="E1">
+        <v>2035</v>
+      </c>
+      <c r="F1">
+        <v>2040</v>
+      </c>
+      <c r="G1">
+        <v>2045</v>
+      </c>
+      <c r="H1">
+        <v>2050</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2">
+        <v>58.5</v>
+      </c>
+      <c r="J2" s="2">
+        <v>-6.5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2">
+        <v>58.5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2">
+        <v>56</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2">
+        <v>59.25</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-3.25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2">
+        <v>58.75</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-4.25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="2">
+        <v>57.75</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-7.25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.02</v>
+      </c>
+      <c r="E8">
+        <v>0.02</v>
+      </c>
+      <c r="F8">
+        <v>0.02</v>
+      </c>
+      <c r="G8">
+        <v>0.02</v>
+      </c>
+      <c r="H8">
+        <v>0.113</v>
+      </c>
+      <c r="I8" s="2">
+        <v>60</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="2">
+        <v>51.75</v>
+      </c>
+      <c r="J9" s="2">
+        <v>-5.5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>-5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2">
+        <v>50.25</v>
+      </c>
+      <c r="J11" s="2">
+        <v>-5.75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>-4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="2">
+        <v>49.75</v>
+      </c>
+      <c r="J13" s="2">
+        <v>-6.5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="2">
+        <v>56.5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>-7.25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="2">
+        <v>50.25</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-5.5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="2">
+        <v>57.25</v>
+      </c>
+      <c r="J16" s="2">
+        <v>-8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="2">
+        <v>58.5</v>
+      </c>
+      <c r="J17" s="2">
+        <v>-7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="2">
+        <v>59</v>
+      </c>
+      <c r="J18" s="2">
+        <v>-3.5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.02</v>
+      </c>
+      <c r="E19">
+        <v>0.02</v>
+      </c>
+      <c r="F19">
+        <v>0.02</v>
+      </c>
+      <c r="G19">
+        <v>0.02</v>
+      </c>
+      <c r="H19">
+        <v>0.113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1750,13 +2137,31 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2E-3</v>
+      </c>
+      <c r="E2">
+        <v>2E-3</v>
+      </c>
+      <c r="F2">
+        <v>2E-3</v>
+      </c>
+      <c r="G2">
+        <v>2E-3</v>
+      </c>
+      <c r="H2">
+        <v>2E-3</v>
+      </c>
       <c r="I2" s="2">
         <v>58.5</v>
       </c>
@@ -1767,13 +2172,31 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1E-3</v>
+      </c>
+      <c r="E3">
+        <v>1E-3</v>
+      </c>
+      <c r="F3">
+        <v>1E-3</v>
+      </c>
+      <c r="G3">
+        <v>1E-3</v>
+      </c>
+      <c r="H3">
+        <v>1E-3</v>
+      </c>
       <c r="I3" s="2">
         <v>58.5</v>
       </c>
@@ -1784,13 +2207,31 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="I4" s="2">
         <v>56</v>
       </c>
@@ -1801,13 +2242,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="I5" s="2">
         <v>59.25</v>
       </c>
@@ -1818,13 +2277,31 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H6">
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="I6" s="2">
         <v>58.75</v>
       </c>
@@ -1835,13 +2312,31 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="I7" s="2">
         <v>57.75</v>
       </c>
@@ -1852,7 +2347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1863,19 +2358,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E8">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F8">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G8">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H8">
-        <v>0.113</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I8" s="2">
         <v>60</v>
@@ -1887,13 +2382,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="I9" s="2">
         <v>51.75</v>
       </c>
@@ -1904,13 +2417,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.01</v>
+      </c>
       <c r="I10" s="2">
         <v>51.5</v>
       </c>
@@ -1921,13 +2452,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="I11" s="2">
         <v>50.25</v>
       </c>
@@ -1938,13 +2487,31 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2E-3</v>
+      </c>
+      <c r="E12">
+        <v>2E-3</v>
+      </c>
+      <c r="F12">
+        <v>2E-3</v>
+      </c>
+      <c r="G12">
+        <v>2E-3</v>
+      </c>
+      <c r="H12">
+        <v>2E-3</v>
+      </c>
       <c r="I12" s="2">
         <v>51.5</v>
       </c>
@@ -1955,13 +2522,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="I13" s="2">
         <v>49.75</v>
       </c>
@@ -1972,13 +2557,31 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="I14" s="2">
         <v>56.5</v>
       </c>
@@ -1989,13 +2592,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2E-3</v>
+      </c>
+      <c r="E15">
+        <v>2E-3</v>
+      </c>
+      <c r="F15">
+        <v>2E-3</v>
+      </c>
+      <c r="G15">
+        <v>2E-3</v>
+      </c>
+      <c r="H15">
+        <v>2E-3</v>
+      </c>
       <c r="I15" s="2">
         <v>50.25</v>
       </c>
@@ -2006,13 +2627,31 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="I16" s="2">
         <v>57.25</v>
       </c>
@@ -2023,13 +2662,31 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="I17" s="2">
         <v>58.5</v>
       </c>
@@ -2040,13 +2697,31 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H18">
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="I18" s="2">
         <v>59</v>
       </c>
@@ -2057,7 +2732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2065,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E19">
-        <v>0.02</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F19">
-        <v>0.02</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G19">
-        <v>0.02</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H19">
-        <v>0.113</v>
+        <v>0.11499999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2085,20 +2760,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2133,7 +2808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2144,19 +2819,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2E-3</v>
+        <v>0.122</v>
       </c>
       <c r="G2">
-        <v>2E-3</v>
+        <v>0.122</v>
       </c>
       <c r="H2">
-        <v>2E-3</v>
+        <v>0.122</v>
       </c>
       <c r="I2" s="2">
         <v>58.5</v>
@@ -2168,7 +2843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2179,19 +2854,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1E-3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G3">
-        <v>1E-3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H3">
-        <v>1E-3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I3" s="2">
         <v>58.5</v>
@@ -2203,7 +2878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2226,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.0999999999999999E-2</v>
+        <v>0.61</v>
       </c>
       <c r="I4" s="2">
         <v>56</v>
@@ -2238,7 +2913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2261,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.0999999999999999E-2</v>
+        <v>0.61</v>
       </c>
       <c r="I5" s="2">
         <v>59.25</v>
@@ -2273,7 +2948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2284,19 +2959,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3.0000000000000001E-3</v>
+        <v>0.153</v>
       </c>
       <c r="H6">
-        <v>3.0000000000000001E-3</v>
+        <v>0.153</v>
       </c>
       <c r="I6" s="2">
         <v>58.75</v>
@@ -2308,7 +2983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2328,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="H7">
-        <v>5.0000000000000001E-3</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="I7" s="2">
         <v>57.75</v>
@@ -2343,7 +3018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2354,19 +3029,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>5.0000000000000001E-3</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="H8">
-        <v>5.0000000000000001E-3</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="I8" s="2">
         <v>60</v>
@@ -2378,7 +3053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2401,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.0999999999999999E-2</v>
+        <v>0.61</v>
       </c>
       <c r="I9" s="2">
         <v>51.75</v>
@@ -2413,7 +3088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2433,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="H10">
-        <v>0.01</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="I10" s="2">
         <v>51.5</v>
@@ -2448,7 +3123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2471,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1.0999999999999999E-2</v>
+        <v>0.61</v>
       </c>
       <c r="I11" s="2">
         <v>50.25</v>
@@ -2483,7 +3158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2494,19 +3169,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>2E-3</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="G12">
-        <v>2E-3</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H12">
-        <v>2E-3</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I12" s="2">
         <v>51.5</v>
@@ -2518,7 +3193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2541,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1.0999999999999999E-2</v>
+        <v>0.61</v>
       </c>
       <c r="I13" s="2">
         <v>49.75</v>
@@ -2553,7 +3228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2573,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="H14">
-        <v>5.0000000000000001E-3</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="I14" s="2">
         <v>56.5</v>
@@ -2588,7 +3263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2599,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>2E-3</v>
+        <v>0.107</v>
       </c>
       <c r="G15">
-        <v>2E-3</v>
+        <v>0.107</v>
       </c>
       <c r="H15">
-        <v>2E-3</v>
+        <v>0.107</v>
       </c>
       <c r="I15" s="2">
         <v>50.25</v>
@@ -2623,7 +3298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2646,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.0999999999999999E-2</v>
+        <v>0.61</v>
       </c>
       <c r="I16" s="2">
         <v>57.25</v>
@@ -2658,7 +3333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2681,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.0999999999999999E-2</v>
+        <v>0.61</v>
       </c>
       <c r="I17" s="2">
         <v>58.5</v>
@@ -2693,7 +3368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2704,19 +3379,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>3.0000000000000001E-3</v>
+        <v>0.153</v>
       </c>
       <c r="H18">
-        <v>3.0000000000000001E-3</v>
+        <v>0.153</v>
       </c>
       <c r="I18" s="2">
         <v>59</v>
@@ -2728,678 +3403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="E19">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F19">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G19">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="H19">
-        <v>0.11499999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1">
-        <v>2025</v>
-      </c>
-      <c r="D1">
-        <v>2030</v>
-      </c>
-      <c r="E1">
-        <v>2035</v>
-      </c>
-      <c r="F1">
-        <v>2040</v>
-      </c>
-      <c r="G1">
-        <v>2045</v>
-      </c>
-      <c r="H1">
-        <v>2050</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.122</v>
-      </c>
-      <c r="G2">
-        <v>0.122</v>
-      </c>
-      <c r="H2">
-        <v>0.122</v>
-      </c>
-      <c r="I2" s="2">
-        <v>58.5</v>
-      </c>
-      <c r="J2" s="2">
-        <v>-6.5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>3.1E-2</v>
-      </c>
-      <c r="G3">
-        <v>3.1E-2</v>
-      </c>
-      <c r="H3">
-        <v>3.1E-2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>58.5</v>
-      </c>
-      <c r="J3" s="2">
-        <v>-7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0.61</v>
-      </c>
-      <c r="I4" s="2">
-        <v>56</v>
-      </c>
-      <c r="J4" s="2">
-        <v>-7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0.61</v>
-      </c>
-      <c r="I5" s="2">
-        <v>59.25</v>
-      </c>
-      <c r="J5" s="2">
-        <v>-3.25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.153</v>
-      </c>
-      <c r="H6">
-        <v>0.153</v>
-      </c>
-      <c r="I6" s="2">
-        <v>58.75</v>
-      </c>
-      <c r="J6" s="2">
-        <v>-4.25</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="H7">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="I7" s="2">
-        <v>57.75</v>
-      </c>
-      <c r="J7" s="2">
-        <v>-7.25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="H8">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="I8" s="2">
-        <v>60</v>
-      </c>
-      <c r="J8" s="2">
-        <v>-1.5</v>
-      </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0.61</v>
-      </c>
-      <c r="I9" s="2">
-        <v>51.75</v>
-      </c>
-      <c r="J9" s="2">
-        <v>-5.5</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="H10">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="I10" s="2">
-        <v>51.5</v>
-      </c>
-      <c r="J10" s="2">
-        <v>-5</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0.61</v>
-      </c>
-      <c r="I11" s="2">
-        <v>50.25</v>
-      </c>
-      <c r="J11" s="2">
-        <v>-5.75</v>
-      </c>
-      <c r="K11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="G12">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="H12">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="I12" s="2">
-        <v>51.5</v>
-      </c>
-      <c r="J12" s="2">
-        <v>-4</v>
-      </c>
-      <c r="K12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0.61</v>
-      </c>
-      <c r="I13" s="2">
-        <v>49.75</v>
-      </c>
-      <c r="J13" s="2">
-        <v>-6.5</v>
-      </c>
-      <c r="K13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="H14">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="I14" s="2">
-        <v>56.5</v>
-      </c>
-      <c r="J14" s="2">
-        <v>-7.25</v>
-      </c>
-      <c r="K14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0.107</v>
-      </c>
-      <c r="G15">
-        <v>0.107</v>
-      </c>
-      <c r="H15">
-        <v>0.107</v>
-      </c>
-      <c r="I15" s="2">
-        <v>50.25</v>
-      </c>
-      <c r="J15" s="2">
-        <v>-5.5</v>
-      </c>
-      <c r="K15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0.61</v>
-      </c>
-      <c r="I16" s="2">
-        <v>57.25</v>
-      </c>
-      <c r="J16" s="2">
-        <v>-8</v>
-      </c>
-      <c r="K16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0.61</v>
-      </c>
-      <c r="I17" s="2">
-        <v>58.5</v>
-      </c>
-      <c r="J17" s="2">
-        <v>-7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0.153</v>
-      </c>
-      <c r="H18">
-        <v>0.153</v>
-      </c>
-      <c r="I18" s="2">
-        <v>59</v>
-      </c>
-      <c r="J18" s="2">
-        <v>-3.5</v>
-      </c>
-      <c r="K18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -3428,19 +3432,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3475,7 +3479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3510,7 +3514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3545,7 +3549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3580,7 +3584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3615,7 +3619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3650,7 +3654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3685,7 +3689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3720,7 +3724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3755,7 +3759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3790,7 +3794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3822,10 +3826,10 @@
         <v>-5.75</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3860,7 +3864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3892,10 +3896,10 @@
         <v>-6.5</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3930,7 +3934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3962,10 +3966,10 @@
         <v>-5.5</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4000,7 +4004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -4035,7 +4039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -4070,7 +4074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -4099,20 +4103,35 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074D845749611EA4C8624BB0749477606" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="db22c31203cda416f2dbeab8713e41c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e024f9b-2e2d-4f1c-b440-57efc902fc77" xmlns:ns4="5b3066ba-4cd6-475a-ab49-b036cbc58b74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0a8c95347e59b8a6ed0a26052ccff3c" ns3:_="" ns4:_="">
     <xsd:import namespace="3e024f9b-2e2d-4f1c-b440-57efc902fc77"/>
@@ -4341,36 +4360,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AC3D7E-387B-4B8C-A004-E8D15CB523AF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42318112-3372-4A76-837C-25F84456F297}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e024f9b-2e2d-4f1c-b440-57efc902fc77"/>
-    <ds:schemaRef ds:uri="5b3066ba-4cd6-475a-ab49-b036cbc58b74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4393,9 +4386,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42318112-3372-4A76-837C-25F84456F297}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AC3D7E-387B-4B8C-A004-E8D15CB523AF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3e024f9b-2e2d-4f1c-b440-57efc902fc77"/>
+    <ds:schemaRef ds:uri="5b3066ba-4cd6-475a-ab49-b036cbc58b74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>